--- a/ICCPlayCricket-DecisionTree-ManualCalculationSteps.xlsx
+++ b/ICCPlayCricket-DecisionTree-ManualCalculationSteps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk194903/Desktop/Manoj/Manoj_Documents/Office_Work/Doc_SanDisk/MS-Admission/Study/Sem-2/CMPE 297 Special Topics in CMPE/HW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D64EABD-F736-A344-B592-2D4760D15AB8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5CA932-E837-414A-B583-06CA9AD9AC36}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="460" windowWidth="33600" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,108 @@
     <author>. Manoj Kumar</author>
   </authors>
   <commentList>
+    <comment ref="N21" authorId="0" shapeId="0" xr:uid="{C1C9F9E3-B248-E64D-9E71-259B278A6C02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. Manoj Kumar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(-5/14*Log2(5/14))+(-9/14*Log(9/14))
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{496C9178-E9A0-CD4B-B273-CDBB9E7AD0D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. Manoj Kumar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E(PlayCricket, Outlook) = P(Sunny)*E(3,2) + P(Overcast)*E(4,0) + P(Rain)*E(3,2)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{6F32A9C8-089B-C147-83F7-07E1369424EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>. Manoj Kumar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Gain(PlayCricket, Outlook) = E(PlayCricket) - E(PlayCricket, Outlook)
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O23" authorId="0" shapeId="0" xr:uid="{98529D67-E80B-5943-9D06-F5A87BEBDEAF}">
       <text>
         <r>
@@ -66,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
   <si>
     <t>MatchDay</t>
   </si>
@@ -164,9 +266,6 @@
     <t xml:space="preserve"> Day 14</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Information Gain</t>
   </si>
   <si>
@@ -191,15 +290,6 @@
     <t>Entrropy (PlayGolf)</t>
   </si>
   <si>
-    <t>Entropy(4, 10)</t>
-  </si>
-  <si>
-    <t>Entropy(7, 7)</t>
-  </si>
-  <si>
-    <t>Entropy(6, 8)</t>
-  </si>
-  <si>
     <t>Gain(PlayCricket, Outlook) = E(PlayCricket) - E(PlayCricket, Outlook)</t>
   </si>
   <si>
@@ -216,6 +306,15 @@
   </si>
   <si>
     <t>A branch with entropy of 0 is a leaf node</t>
+  </si>
+  <si>
+    <t>Total(Y/N)</t>
+  </si>
+  <si>
+    <t>Before node entropy - after node split entropy</t>
+  </si>
+  <si>
+    <t>Total Split</t>
   </si>
 </sst>
 </file>
@@ -371,7 +470,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +671,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,12 +847,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1146,10 +1259,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q42"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1157,6 +1271,7 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1180,7 +1295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1200,7 +1315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1223,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1309,13 +1424,13 @@
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1335,7 +1450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1355,7 +1470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1395,7 +1510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1415,7 +1530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1435,7 +1550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1475,25 +1590,25 @@
         <v>11</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="I17" t="s">
+      <c r="I17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J17" t="s">
@@ -1503,7 +1618,7 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N17" t="s">
         <v>1</v>
@@ -1523,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
         <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
@@ -1537,31 +1652,31 @@
       <c r="K18">
         <v>4</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18">
         <v>4</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>5</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <f>(D19/SUM(D19,D20))</f>
@@ -1580,31 +1695,31 @@
       <c r="K19">
         <v>2</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19">
         <v>5</v>
       </c>
       <c r="M19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>9</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <f>(D20/SUM(D19,D20))</f>
@@ -1623,7 +1738,7 @@
       <c r="K20">
         <v>3</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20">
         <v>5</v>
       </c>
     </row>
@@ -1633,31 +1748,40 @@
         <v>Outlook</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1">
         <f>SUM(F19,F20)</f>
         <v>0.81127812445913283</v>
       </c>
+      <c r="I21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5</v>
+      </c>
+      <c r="K21" s="2">
+        <v>9</v>
+      </c>
       <c r="M21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>0.94</v>
       </c>
       <c r="O21">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="Q21">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="M22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <f>((5/14)*0.97)+((5/14)*0.97)+((4/14)*0)</f>
@@ -1667,9 +1791,17 @@
         <f>((4/14)*1)+((6/14)*0.92)+((4/14)*0.81)</f>
         <v>0.91142857142857137</v>
       </c>
+      <c r="P22">
+        <f>((7/14)*0.985 + (7/14)*0.59)</f>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="Q22">
+        <f>((6/14)*1 + (8/14)*0.81)</f>
+        <v>0.89142857142857146</v>
+      </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="I23" t="s">
+      <c r="I23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="J23" t="s">
@@ -1678,11 +1810,8 @@
       <c r="K23" t="s">
         <v>16</v>
       </c>
-      <c r="L23" t="s">
-        <v>32</v>
-      </c>
       <c r="M23" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N23" s="4">
         <f>SUM(N21,-N22)</f>
@@ -1690,20 +1819,20 @@
       </c>
       <c r="O23" s="4">
         <f t="shared" ref="O23:Q23" si="0">SUM(O21,-O22)</f>
-        <v>-5.1428571428571379E-2</v>
+        <v>2.8571428571428581E-2</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.15249999999999997</v>
       </c>
       <c r="Q23" s="4">
         <f t="shared" si="0"/>
-        <v>0.99</v>
+        <v>4.8571428571428488E-2</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
@@ -1714,13 +1843,13 @@
       <c r="K24">
         <v>2</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
         <v>19</v>
@@ -1731,14 +1860,17 @@
       <c r="K25">
         <v>4</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25">
         <v>6</v>
       </c>
       <c r="N25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
       <c r="I26" t="s">
         <v>21</v>
       </c>
@@ -1748,12 +1880,23 @@
       <c r="K26">
         <v>3</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26">
         <v>4</v>
       </c>
     </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5</v>
+      </c>
+      <c r="K27" s="2">
+        <v>9</v>
+      </c>
+    </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="I29" t="s">
+      <c r="I29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J29" t="s">
@@ -1761,9 +1904,6 @@
       </c>
       <c r="K29" t="s">
         <v>16</v>
-      </c>
-      <c r="L29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
@@ -1776,7 +1916,7 @@
       <c r="K30">
         <v>3</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30">
         <v>7</v>
       </c>
     </row>
@@ -1790,12 +1930,23 @@
       <c r="K31">
         <v>6</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="I34" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="3">
+        <v>5</v>
+      </c>
+      <c r="K32" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="J34" t="s">
@@ -1804,11 +1955,8 @@
       <c r="K34" t="s">
         <v>16</v>
       </c>
-      <c r="L34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
         <v>13</v>
       </c>
@@ -1818,11 +1966,11 @@
       <c r="K35">
         <v>3</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
         <v>10</v>
       </c>
@@ -1832,17 +1980,29 @@
       <c r="K36">
         <v>6</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E42">
-        <f>5/14</f>
-        <v>0.35714285714285715</v>
+    <row r="37" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="3">
+        <v>5</v>
+      </c>
+      <c r="K37" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F15" xr:uid="{8BBA2FC4-B4C9-1340-B5ED-97D299A2B802}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Rain"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
